--- a/residences.xlsx
+++ b/residences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\residences\directory-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\residences\directory-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1DD793-FB49-4B38-BEFA-A95310815755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115D593-16F8-4DE8-83E1-3427192D2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1455" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>Description</t>
   </si>
@@ -187,6 +187,240 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Village+Riviera/@45.4836221,-75.7394312,16z/data=!3m1!4b1!4m6!3m5!1s0x4cce1cbe6e2038cf:0x4b7b9a4f2f27a192!8m2!3d45.4836184!4d-75.7368563!16s%2Fg%2F11btt5gg6l?entry=ttu&amp;g_ep=EgoyMDI1MDkyMi4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Residence 1</t>
+  </si>
+  <si>
+    <t>1 Main St</t>
+  </si>
+  <si>
+    <t>(416) 555-1001</t>
+  </si>
+  <si>
+    <t>info1@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence1.ca</t>
+  </si>
+  <si>
+    <t>Pool, Gym</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=1+Main+St+Toronto</t>
+  </si>
+  <si>
+    <t>Comfortable senior living</t>
+  </si>
+  <si>
+    <t>Residence 2</t>
+  </si>
+  <si>
+    <t>2 Main St</t>
+  </si>
+  <si>
+    <t>(613) 555-1002</t>
+  </si>
+  <si>
+    <t>info2@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence2.ca</t>
+  </si>
+  <si>
+    <t>Gym, Library</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=2+Main+St+Ottawa</t>
+  </si>
+  <si>
+    <t>Independent lifestyle with support</t>
+  </si>
+  <si>
+    <t>Residence 3</t>
+  </si>
+  <si>
+    <t>3 Main St</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>(343) 555-1003</t>
+  </si>
+  <si>
+    <t>info3@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence3.ca</t>
+  </si>
+  <si>
+    <t>Pet-Friendly, Garden</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=3+Main+St+Kingston</t>
+  </si>
+  <si>
+    <t>Lakeside retirement community</t>
+  </si>
+  <si>
+    <t>Residence 4</t>
+  </si>
+  <si>
+    <t>4 Main St</t>
+  </si>
+  <si>
+    <t>(416) 555-1004</t>
+  </si>
+  <si>
+    <t>info4@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence4.ca</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=4+Main+St+Toronto</t>
+  </si>
+  <si>
+    <t>Modern amenities with charm</t>
+  </si>
+  <si>
+    <t>Residence 5</t>
+  </si>
+  <si>
+    <t>5 Main St</t>
+  </si>
+  <si>
+    <t>(613) 555-1005</t>
+  </si>
+  <si>
+    <t>info5@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence5.ca</t>
+  </si>
+  <si>
+    <t>Library, Pet-Friendly</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=5+Main+St+Ottawa</t>
+  </si>
+  <si>
+    <t>Community-focused living</t>
+  </si>
+  <si>
+    <t>Residence 6</t>
+  </si>
+  <si>
+    <t>6 Main St</t>
+  </si>
+  <si>
+    <t>(343) 555-1006</t>
+  </si>
+  <si>
+    <t>info6@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence6.ca</t>
+  </si>
+  <si>
+    <t>Gym, Pool</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=6+Main+St+Kingston</t>
+  </si>
+  <si>
+    <t>Peaceful and scenic location</t>
+  </si>
+  <si>
+    <t>Residence 7</t>
+  </si>
+  <si>
+    <t>7 Main St</t>
+  </si>
+  <si>
+    <t>(416) 555-1007</t>
+  </si>
+  <si>
+    <t>info7@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence7.ca</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=7+Main+St+Toronto</t>
+  </si>
+  <si>
+    <t>Supportive care options</t>
+  </si>
+  <si>
+    <t>Residence 8</t>
+  </si>
+  <si>
+    <t>8 Main St</t>
+  </si>
+  <si>
+    <t>(613) 555-1008</t>
+  </si>
+  <si>
+    <t>info8@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence8.ca</t>
+  </si>
+  <si>
+    <t>Library, Garden</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=8+Main+St+Ottawa</t>
+  </si>
+  <si>
+    <t>Independent and assisted living</t>
+  </si>
+  <si>
+    <t>Residence 9</t>
+  </si>
+  <si>
+    <t>9 Main St</t>
+  </si>
+  <si>
+    <t>(343) 555-1009</t>
+  </si>
+  <si>
+    <t>info9@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence9.ca</t>
+  </si>
+  <si>
+    <t>Pool, Pet-Friendly</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=9+Main+St+Kingston</t>
+  </si>
+  <si>
+    <t>Tranquil retirement setting</t>
+  </si>
+  <si>
+    <t>Residence 10</t>
+  </si>
+  <si>
+    <t>10 Main St</t>
+  </si>
+  <si>
+    <t>(416) 555-1010</t>
+  </si>
+  <si>
+    <t>info10@residence.ca</t>
+  </si>
+  <si>
+    <t>https://residence10.ca</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=10+Main+St+Toronto</t>
+  </si>
+  <si>
+    <t>Active senior lifestyle</t>
   </si>
 </sst>
 </file>
@@ -231,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -239,7 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,16 +811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2B0DAE-254D-4FC6-845A-72EEDC5CB68F}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -649,7 +879,7 @@
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -691,6 +921,356 @@
         <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
         <v>47</v>
       </c>
     </row>

--- a/residences.xlsx
+++ b/residences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\residences\directory-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115D593-16F8-4DE8-83E1-3427192D2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D9123-CBAB-4B4C-AD8E-6C263D23E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
   </bookViews>
   <sheets>
     <sheet name="residences" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>Description</t>
   </si>
@@ -421,13 +421,16 @@
   </si>
   <si>
     <t>Active senior lifestyle</t>
+  </si>
+  <si>
+    <t>Additional Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +445,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -474,6 +482,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,15 +822,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2B0DAE-254D-4FC6-845A-72EEDC5CB68F}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K13"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -853,8 +864,11 @@
       <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -924,7 +938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -959,7 +973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -994,7 +1008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1064,7 +1078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1204,7 +1218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1284,12 +1298,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>

--- a/residences.xlsx
+++ b/residences.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\residences\directory-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953BECD7-506D-4C84-BA93-F76F2F7F95DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E64993-A9BF-4CB2-9E98-6A9B3426665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
+    <workbookView xWindow="696" yWindow="768" windowWidth="30024" windowHeight="12120" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
   </bookViews>
   <sheets>
     <sheet name="residences" sheetId="2" r:id="rId1"/>
     <sheet name="del" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">residences!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="2093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="2094">
   <si>
     <t>Description</t>
   </si>
@@ -6316,6 +6319,9 @@
   </si>
   <si>
     <t>Assisted Living, BBQ, Billard, Bocce Ball Court, Car Wash, Cinema, Dog Washing Station, Firepit, Fitness Room, Gym, Hobby Room, Kids Area, Locker Rooms, Monthly Activities, Nursing Care, One Bedroom + Den Suites, Onsite Wi-Fi, Parking, Pets' Area, Phone, Physiotherapy, Putting Green, Respite Care, Saltwater Pool, Shuttle Service, Storage, Studio + Den Suites, Studio Suites, Sunroom, TV Room, Two Bedroom Suites</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -6714,10 +6720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2B0DAE-254D-4FC6-845A-72EEDC5CB68F}">
-  <dimension ref="A1:L336"/>
+  <dimension ref="A1:L337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="H336" sqref="H336"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16479,7 +16485,13 @@
         <v>39</v>
       </c>
     </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>2093</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{9A2B0DAE-254D-4FC6-845A-72EEDC5CB68F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/residences.xlsx
+++ b/residences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\residences\directory-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoyleMediaGroup\25f-cst8319-25f_cst8319_320_team-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E64993-A9BF-4CB2-9E98-6A9B3426665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E78BF6-C3D8-4AA5-ABAD-1FB67FDA13E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="768" windowWidth="30024" windowHeight="12120" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30024" windowHeight="12120" xr2:uid="{7081FDD0-81F1-4A15-AD6F-A0D08666638A}"/>
   </bookViews>
   <sheets>
     <sheet name="residences" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="2093">
   <si>
     <t>Description</t>
   </si>
@@ -6319,9 +6319,6 @@
   </si>
   <si>
     <t>Assisted Living, BBQ, Billard, Bocce Ball Court, Car Wash, Cinema, Dog Washing Station, Firepit, Fitness Room, Gym, Hobby Room, Kids Area, Locker Rooms, Monthly Activities, Nursing Care, One Bedroom + Den Suites, Onsite Wi-Fi, Parking, Pets' Area, Phone, Physiotherapy, Putting Green, Respite Care, Saltwater Pool, Shuttle Service, Storage, Studio + Den Suites, Studio Suites, Sunroom, TV Room, Two Bedroom Suites</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -6720,13 +6717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2B0DAE-254D-4FC6-845A-72EEDC5CB68F}">
-  <dimension ref="A1:L337"/>
+  <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
@@ -16483,11 +16484,6 @@
       </c>
       <c r="I336" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>2093</v>
       </c>
     </row>
   </sheetData>
